--- a/language.xlsx
+++ b/language.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/jf_hernandezp1_uniandes_edu_co/Documents/UNI/S5/LYM/P0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77D2E0C3-E7B0-4362-8F0A-849862D18617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{77D2E0C3-E7B0-4362-8F0A-849862D18617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71EF238D-4BE4-407E-9489-F8E292DCB6DA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{1C9E836C-9BC7-4A05-9B6D-ECFD801B7E41}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="11625" activeTab="1" xr2:uid="{1C9E836C-9BC7-4A05-9B6D-ECFD801B7E41}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="231">
   <si>
     <t>INSTRUCTION</t>
   </si>
@@ -149,9 +150,6 @@
     <t>STRING_NEXT</t>
   </si>
   <si>
-    <t>STRING STRING_NEXT</t>
-  </si>
-  <si>
     <t>proc</t>
   </si>
   <si>
@@ -248,21 +246,12 @@
     <t>VARIABLE</t>
   </si>
   <si>
-    <t>|STRINGS|</t>
-  </si>
-  <si>
     <t>STRINGS</t>
   </si>
   <si>
     <t xml:space="preserve">STRING </t>
   </si>
   <si>
-    <t xml:space="preserve">string   </t>
-  </si>
-  <si>
-    <t>, STRING STRING_NEXT | LAMBDA</t>
-  </si>
-  <si>
     <t xml:space="preserve">{variables}  </t>
   </si>
   <si>
@@ -480,6 +469,267 @@
   </si>
   <si>
     <t>CREATE_VARIABLES S | PROCEDURE S | VARIABLE S | PROCEDURE_CALL S | LAMBDA</t>
+  </si>
+  <si>
+    <t>|STRING STRING|</t>
+  </si>
+  <si>
+    <t>string | LAMBDA</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =</t>
+  </si>
+  <si>
+    <t>COMMAND ;</t>
+  </si>
+  <si>
+    <t>M | R | C | B | c | b | P | J_fun | G_fun</t>
+  </si>
+  <si>
+    <t>J_fun</t>
+  </si>
+  <si>
+    <t>J ( INTEGER )</t>
+  </si>
+  <si>
+    <t>G_fun</t>
+  </si>
+  <si>
+    <t>G ( INTEGER , INTEGER )</t>
+  </si>
+  <si>
+    <t>VARIABLE_DEFINITION</t>
+  </si>
+  <si>
+    <t>| STRINGS |</t>
+  </si>
+  <si>
+    <t>STRING STRINGS | LAMBDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">str </t>
+  </si>
+  <si>
+    <t>INTEGER</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>PROCEDURE_DEFINITION</t>
+  </si>
+  <si>
+    <t>proc PARAMS BLOCK</t>
+  </si>
+  <si>
+    <t>PARAM NEXT_PARAM | LAMBDA</t>
+  </si>
+  <si>
+    <t>NEXT_PARAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PARAM </t>
+  </si>
+  <si>
+    <t>STRING : VALUE</t>
+  </si>
+  <si>
+    <t>and PARAM NEXT_PARAM | LAMBDA</t>
+  </si>
+  <si>
+    <t>INTEGER | STRING</t>
+  </si>
+  <si>
+    <t>$$$procs</t>
+  </si>
+  <si>
+    <t>$$$vars</t>
+  </si>
+  <si>
+    <t>$$$procs ____ .</t>
+  </si>
+  <si>
+    <t>INSTRUCTION INSTRUCTIONS | LAMBDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VARIABLE_DEFINITION | VARIABLE_ASSIGNMENT | PROCEDURE_CALL | CONDITIONAL | LOOP | CONSTANT | GOTO | MOVE | TURN | FACE | PUT | PICK | JUMP | NOP </t>
+  </si>
+  <si>
+    <t>$$$vars : = VALUE .</t>
+  </si>
+  <si>
+    <t>VARIABLE | INTEGER</t>
+  </si>
+  <si>
+    <t>toThe : D</t>
+  </si>
+  <si>
+    <t>inDir : O</t>
+  </si>
+  <si>
+    <t>ofType : X</t>
+  </si>
+  <si>
+    <t>move : N . | move : N TOTHE . | move : N INDIR .</t>
+  </si>
+  <si>
+    <t>turn : D .</t>
+  </si>
+  <si>
+    <t>face : O .</t>
+  </si>
+  <si>
+    <t>put : N OFTYPE .</t>
+  </si>
+  <si>
+    <t>jump : N TOTHE . | jump: N INDIR .</t>
+  </si>
+  <si>
+    <t>if : CONDITION then : BLOCK else : BLOCK</t>
+  </si>
+  <si>
+    <t>while : CONDITION do : BLOCK</t>
+  </si>
+  <si>
+    <t>for : N repeat : BLOCK</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>not : CONDITION</t>
+  </si>
+  <si>
+    <t>facing : O .</t>
+  </si>
+  <si>
+    <t>canPut : N OFTYPE .</t>
+  </si>
+  <si>
+    <t>canPick : N OFTYPE .</t>
+  </si>
+  <si>
+    <t>canMove : N INDIR . | canMove : N TOTHE .</t>
+  </si>
+  <si>
+    <t>canJuamp : N INDIR . | canJump : TOTHE .</t>
+  </si>
+  <si>
+    <t>pick : N OFTYPE .</t>
+  </si>
+  <si>
+    <t>str</t>
+  </si>
+  <si>
+    <t>goto</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>#front</t>
+  </si>
+  <si>
+    <t>#right</t>
+  </si>
+  <si>
+    <t>#left</t>
+  </si>
+  <si>
+    <t>#back</t>
+  </si>
+  <si>
+    <t>#north</t>
+  </si>
+  <si>
+    <t>#south</t>
+  </si>
+  <si>
+    <t>#west</t>
+  </si>
+  <si>
+    <t>#east</t>
+  </si>
+  <si>
+    <t>#balloons</t>
+  </si>
+  <si>
+    <t>#chips</t>
+  </si>
+  <si>
+    <t>toThe</t>
+  </si>
+  <si>
+    <t>inDir</t>
+  </si>
+  <si>
+    <t>ofType</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>turn</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>pick</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>facing</t>
+  </si>
+  <si>
+    <t>canPut</t>
+  </si>
+  <si>
+    <t>canPick</t>
+  </si>
+  <si>
+    <t>canMove</t>
+  </si>
+  <si>
+    <t>canJump</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -515,8 +765,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -853,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E171F02-8C98-4813-BC09-E19018282B11}">
   <dimension ref="A2:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +1135,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -960,7 +1211,7 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -971,28 +1222,22 @@
       <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" t="s">
         <v>69</v>
-      </c>
-      <c r="B10" t="s">
-        <v>71</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1005,12 +1250,6 @@
       <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1023,7 +1262,7 @@
         <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1034,10 +1273,10 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1048,10 +1287,10 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1066,24 +1305,717 @@
         <v>PROCEDURE_CALL</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
       </c>
       <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>43</v>
       </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" t="str">
+        <f>B43</f>
+        <v>REPEAT_TIMES</v>
+      </c>
+      <c r="E40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" t="str">
+        <f>B45</f>
+        <v>FACING</v>
+      </c>
+      <c r="E42" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" ref="D43:D47" si="0">B46</f>
+        <v>CANPUT</v>
+      </c>
+      <c r="E43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>CANPICK</v>
+      </c>
+      <c r="E44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>CANMOVE</v>
+      </c>
+      <c r="E45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>CANJUMP</v>
+      </c>
+      <c r="E46" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">NOT </v>
+      </c>
+      <c r="E47" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>126</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CCAD36A-5411-45D1-8467-7F13309C601D}">
+  <dimension ref="A2:E61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <selection activeCell="B47" sqref="B3:B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>230</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -1091,461 +2023,503 @@
         <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" t="s">
         <v>65</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>66</v>
-      </c>
-      <c r="E22" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
       </c>
       <c r="E23" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="D24" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>196</v>
       </c>
       <c r="D27" t="s">
         <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="D28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>198</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" t="s">
         <v>99</v>
       </c>
-      <c r="D30" t="s">
-        <v>103</v>
-      </c>
       <c r="E30" t="s">
-        <v>105</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E34" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>204</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="D36" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>206</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="D38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
-      </c>
-      <c r="D40" t="str">
-        <f>B43</f>
-        <v>REPEAT_TIMES</v>
+        <v>209</v>
+      </c>
+      <c r="D40" t="s">
+        <v>119</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>210</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E41" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="C42" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" t="str">
-        <f>B45</f>
-        <v>FACING</v>
+        <v>211</v>
+      </c>
+      <c r="D42" t="s">
+        <v>123</v>
       </c>
       <c r="E42" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" ref="D43:D52" si="0">B46</f>
-        <v>CANPUT</v>
+        <v>212</v>
+      </c>
+      <c r="D43" t="s">
+        <v>124</v>
       </c>
       <c r="E43" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="0"/>
-        <v>CANPICK</v>
+        <v>213</v>
+      </c>
+      <c r="D44" t="s">
+        <v>125</v>
       </c>
       <c r="E44" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>137</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="0"/>
-        <v>CANMOVE</v>
+        <v>214</v>
+      </c>
+      <c r="D45" t="s">
+        <v>126</v>
       </c>
       <c r="E45" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="0"/>
-        <v>CANJUMP</v>
+        <v>215</v>
+      </c>
+      <c r="D46" t="s">
+        <v>127</v>
       </c>
       <c r="E46" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="C47" t="s">
-        <v>139</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">NOT </v>
+        <v>216</v>
+      </c>
+      <c r="D47" t="s">
+        <v>187</v>
       </c>
       <c r="E47" t="s">
-        <v>145</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>130</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>133</v>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
